--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7373436666666667</v>
+        <v>0.5296286666666666</v>
       </c>
       <c r="H2">
-        <v>2.212031</v>
+        <v>1.588886</v>
       </c>
       <c r="I2">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="J2">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N2">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O2">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P2">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q2">
-        <v>3.683847362876556</v>
+        <v>2.553148606051333</v>
       </c>
       <c r="R2">
-        <v>33.154626265889</v>
+        <v>22.978337454462</v>
       </c>
       <c r="S2">
-        <v>0.005524251970111013</v>
+        <v>0.003819722030402819</v>
       </c>
       <c r="T2">
-        <v>0.005524251970111013</v>
+        <v>0.003819722030402819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7373436666666667</v>
+        <v>0.5296286666666666</v>
       </c>
       <c r="H3">
-        <v>2.212031</v>
+        <v>1.588886</v>
       </c>
       <c r="I3">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="J3">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>106.222511</v>
       </c>
       <c r="O3">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P3">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q3">
-        <v>26.10749858109345</v>
+        <v>18.75282895697178</v>
       </c>
       <c r="R3">
-        <v>234.967487229841</v>
+        <v>168.775460612746</v>
       </c>
       <c r="S3">
-        <v>0.0391504821629356</v>
+        <v>0.02805578716787032</v>
       </c>
       <c r="T3">
-        <v>0.0391504821629356</v>
+        <v>0.02805578716787033</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7373436666666667</v>
+        <v>0.5296286666666666</v>
       </c>
       <c r="H4">
-        <v>2.212031</v>
+        <v>1.588886</v>
       </c>
       <c r="I4">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="J4">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N4">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O4">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P4">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q4">
-        <v>41.99859017292167</v>
+        <v>27.18101860333311</v>
       </c>
       <c r="R4">
-        <v>377.987311556295</v>
+        <v>244.629167429998</v>
       </c>
       <c r="S4">
-        <v>0.06298056668761662</v>
+        <v>0.04066505777292498</v>
       </c>
       <c r="T4">
-        <v>0.06298056668761663</v>
+        <v>0.04066505777292498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7373436666666667</v>
+        <v>0.5296286666666666</v>
       </c>
       <c r="H5">
-        <v>2.212031</v>
+        <v>1.588886</v>
       </c>
       <c r="I5">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="J5">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N5">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O5">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P5">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q5">
-        <v>2.937059306964778</v>
+        <v>2.178565553779333</v>
       </c>
       <c r="R5">
-        <v>26.43353376268301</v>
+        <v>19.607089984014</v>
       </c>
       <c r="S5">
-        <v>0.004404377832355037</v>
+        <v>0.003259314722505551</v>
       </c>
       <c r="T5">
-        <v>0.004404377832355037</v>
+        <v>0.003259314722505552</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7373436666666667</v>
+        <v>0.5296286666666666</v>
       </c>
       <c r="H6">
-        <v>2.212031</v>
+        <v>1.588886</v>
       </c>
       <c r="I6">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="J6">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N6">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O6">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P6">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q6">
-        <v>37.22106872255656</v>
+        <v>30.65272921704644</v>
       </c>
       <c r="R6">
-        <v>334.989618503009</v>
+        <v>275.874562953418</v>
       </c>
       <c r="S6">
-        <v>0.05581625457458202</v>
+        <v>0.04585902473707022</v>
       </c>
       <c r="T6">
-        <v>0.05581625457458203</v>
+        <v>0.04585902473707022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.569621</v>
       </c>
       <c r="I7">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="J7">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N7">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O7">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P7">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q7">
-        <v>9.275472917455444</v>
+        <v>8.949710735939666</v>
       </c>
       <c r="R7">
-        <v>83.479256257099</v>
+        <v>80.54739662345699</v>
       </c>
       <c r="S7">
-        <v>0.01390938453485583</v>
+        <v>0.01338950940136308</v>
       </c>
       <c r="T7">
-        <v>0.01390938453485583</v>
+        <v>0.01338950940136308</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.569621</v>
       </c>
       <c r="I8">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="J8">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>106.222511</v>
       </c>
       <c r="O8">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P8">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q8">
         <v>65.73545865981454</v>
@@ -948,10 +948,10 @@
         <v>591.619127938331</v>
       </c>
       <c r="S8">
-        <v>0.0985760812641466</v>
+        <v>0.09834569716247803</v>
       </c>
       <c r="T8">
-        <v>0.09857608126414663</v>
+        <v>0.09834569716247803</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.569621</v>
       </c>
       <c r="I9">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="J9">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N9">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O9">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P9">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q9">
-        <v>105.7472656565383</v>
+        <v>95.27931646103922</v>
       </c>
       <c r="R9">
-        <v>951.725390908845</v>
+        <v>857.513848149353</v>
       </c>
       <c r="S9">
-        <v>0.1585772924589438</v>
+        <v>0.1425457583100966</v>
       </c>
       <c r="T9">
-        <v>0.1585772924589438</v>
+        <v>0.1425457583100966</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.569621</v>
       </c>
       <c r="I10">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="J10">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N10">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O10">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P10">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q10">
-        <v>7.395152777839223</v>
+        <v>7.636661445947666</v>
       </c>
       <c r="R10">
-        <v>66.556375000553</v>
+        <v>68.729953013529</v>
       </c>
       <c r="S10">
-        <v>0.01108967969572718</v>
+        <v>0.01142507878103029</v>
       </c>
       <c r="T10">
-        <v>0.01108967969572718</v>
+        <v>0.01142507878103029</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.569621</v>
       </c>
       <c r="I11">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="J11">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N11">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O11">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P11">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q11">
-        <v>93.71805639233544</v>
+        <v>107.4489197806359</v>
       </c>
       <c r="R11">
-        <v>843.462507531019</v>
+        <v>967.0402780257228</v>
       </c>
       <c r="S11">
-        <v>0.1405384389368585</v>
+        <v>0.1607524940210347</v>
       </c>
       <c r="T11">
-        <v>0.1405384389368585</v>
+        <v>0.1607524940210347</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.06709466666666666</v>
+        <v>0.102629</v>
       </c>
       <c r="H12">
-        <v>0.201284</v>
+        <v>0.307887</v>
       </c>
       <c r="I12">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="J12">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N12">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O12">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P12">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q12">
-        <v>0.3352120890662222</v>
+        <v>0.494737359931</v>
       </c>
       <c r="R12">
-        <v>3.016908801596</v>
+        <v>4.452636239379</v>
       </c>
       <c r="S12">
-        <v>0.0005026799052779211</v>
+        <v>0.0007401681157582312</v>
       </c>
       <c r="T12">
-        <v>0.0005026799052779211</v>
+        <v>0.000740168115758231</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.06709466666666666</v>
+        <v>0.102629</v>
       </c>
       <c r="H13">
-        <v>0.201284</v>
+        <v>0.307887</v>
       </c>
       <c r="I13">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="J13">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>106.222511</v>
       </c>
       <c r="O13">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P13">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q13">
-        <v>2.375654656013777</v>
+        <v>3.633836693806333</v>
       </c>
       <c r="R13">
-        <v>21.380891904124</v>
+        <v>32.704530244257</v>
       </c>
       <c r="S13">
-        <v>0.003562502357193153</v>
+        <v>0.005436521024009332</v>
       </c>
       <c r="T13">
-        <v>0.003562502357193154</v>
+        <v>0.005436521024009332</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06709466666666666</v>
+        <v>0.102629</v>
       </c>
       <c r="H14">
-        <v>0.201284</v>
+        <v>0.307887</v>
       </c>
       <c r="I14">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="J14">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N14">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O14">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P14">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q14">
-        <v>3.821666253486667</v>
+        <v>5.267012406632334</v>
       </c>
       <c r="R14">
-        <v>34.39499628138</v>
+        <v>47.40311165969101</v>
       </c>
       <c r="S14">
-        <v>0.005730923474919756</v>
+        <v>0.007879887318871558</v>
       </c>
       <c r="T14">
-        <v>0.005730923474919757</v>
+        <v>0.007879887318871556</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06709466666666666</v>
+        <v>0.102629</v>
       </c>
       <c r="H15">
-        <v>0.201284</v>
+        <v>0.307887</v>
       </c>
       <c r="I15">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="J15">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N15">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O15">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P15">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q15">
-        <v>0.2672580291791111</v>
+        <v>0.4221523839070001</v>
       </c>
       <c r="R15">
-        <v>2.405322262612</v>
+        <v>3.799371455163</v>
       </c>
       <c r="S15">
-        <v>0.0004007768370369814</v>
+        <v>0.0006315749726336985</v>
       </c>
       <c r="T15">
-        <v>0.0004007768370369815</v>
+        <v>0.0006315749726336986</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06709466666666666</v>
+        <v>0.102629</v>
       </c>
       <c r="H16">
-        <v>0.201284</v>
+        <v>0.307887</v>
       </c>
       <c r="I16">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="J16">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N16">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O16">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P16">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q16">
-        <v>3.386935172586222</v>
+        <v>5.939744475342334</v>
       </c>
       <c r="R16">
-        <v>30.482416553276</v>
+        <v>53.457700278081</v>
       </c>
       <c r="S16">
-        <v>0.00507900611962046</v>
+        <v>0.008886350278888693</v>
       </c>
       <c r="T16">
-        <v>0.005079006119620461</v>
+        <v>0.008886350278888693</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.501289333333333</v>
+        <v>1.519231666666667</v>
       </c>
       <c r="H17">
-        <v>4.503868000000001</v>
+        <v>4.557695</v>
       </c>
       <c r="I17">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530908</v>
       </c>
       <c r="J17">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530907</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N17">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O17">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P17">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q17">
-        <v>7.500601146432445</v>
+        <v>7.323667422368333</v>
       </c>
       <c r="R17">
-        <v>67.50541031789201</v>
+        <v>65.91300680131499</v>
       </c>
       <c r="S17">
-        <v>0.01124780876584458</v>
+        <v>0.0109568137672286</v>
       </c>
       <c r="T17">
-        <v>0.01124780876584458</v>
+        <v>0.01095681376722859</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.501289333333333</v>
+        <v>1.519231666666667</v>
       </c>
       <c r="H18">
-        <v>4.503868000000001</v>
+        <v>4.557695</v>
       </c>
       <c r="I18">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530908</v>
       </c>
       <c r="J18">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530907</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>106.222511</v>
       </c>
       <c r="O18">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P18">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q18">
-        <v>53.15690757472755</v>
+        <v>53.7922008080161</v>
       </c>
       <c r="R18">
-        <v>478.412168172548</v>
+        <v>484.1298072721449</v>
       </c>
       <c r="S18">
-        <v>0.07971344153776165</v>
+        <v>0.08047759304070068</v>
       </c>
       <c r="T18">
-        <v>0.07971344153776166</v>
+        <v>0.08047759304070067</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.501289333333333</v>
+        <v>1.519231666666667</v>
       </c>
       <c r="H19">
-        <v>4.503868000000001</v>
+        <v>4.557695</v>
       </c>
       <c r="I19">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530908</v>
       </c>
       <c r="J19">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530907</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N19">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O19">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P19">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q19">
-        <v>85.51241204347335</v>
+        <v>77.96833289695944</v>
       </c>
       <c r="R19">
-        <v>769.6117083912602</v>
+        <v>701.714996072635</v>
       </c>
       <c r="S19">
-        <v>0.1282333560995405</v>
+        <v>0.1166470914127076</v>
       </c>
       <c r="T19">
-        <v>0.1282333560995405</v>
+        <v>0.1166470914127076</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.501289333333333</v>
+        <v>1.519231666666667</v>
       </c>
       <c r="H20">
-        <v>4.503868000000001</v>
+        <v>4.557695</v>
       </c>
       <c r="I20">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530908</v>
       </c>
       <c r="J20">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530907</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N20">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O20">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P20">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q20">
-        <v>5.980082298458224</v>
+        <v>6.249181710728332</v>
       </c>
       <c r="R20">
-        <v>53.82074068612401</v>
+        <v>56.242635396555</v>
       </c>
       <c r="S20">
-        <v>0.008967657496234554</v>
+        <v>0.009349294042612205</v>
       </c>
       <c r="T20">
-        <v>0.008967657496234554</v>
+        <v>0.009349294042612206</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.501289333333333</v>
+        <v>1.519231666666667</v>
       </c>
       <c r="H21">
-        <v>4.503868000000001</v>
+        <v>4.557695</v>
       </c>
       <c r="I21">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530908</v>
       </c>
       <c r="J21">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530907</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N21">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O21">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P21">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q21">
-        <v>75.78500497747245</v>
+        <v>87.92688127964277</v>
       </c>
       <c r="R21">
-        <v>682.0650447972521</v>
+        <v>791.3419315167849</v>
       </c>
       <c r="S21">
-        <v>0.1136462567017884</v>
+        <v>0.1315459055898417</v>
       </c>
       <c r="T21">
-        <v>0.1136462567017884</v>
+        <v>0.1315459055898417</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.229926</v>
+        <v>0.3453603333333333</v>
       </c>
       <c r="H22">
-        <v>0.689778</v>
+        <v>1.036081</v>
       </c>
       <c r="I22">
-        <v>0.05234878058664986</v>
+        <v>0.07933135632997121</v>
       </c>
       <c r="J22">
-        <v>0.05234878058664987</v>
+        <v>0.07933135632997119</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N22">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O22">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P22">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q22">
-        <v>1.148734744798</v>
+        <v>1.664857491919666</v>
       </c>
       <c r="R22">
-        <v>10.338612703182</v>
+        <v>14.983717427277</v>
       </c>
       <c r="S22">
-        <v>0.001722628424031686</v>
+        <v>0.002490764863547028</v>
       </c>
       <c r="T22">
-        <v>0.001722628424031686</v>
+        <v>0.002490764863547027</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.229926</v>
+        <v>0.3453603333333333</v>
       </c>
       <c r="H23">
-        <v>0.689778</v>
+        <v>1.036081</v>
       </c>
       <c r="I23">
-        <v>0.05234878058664986</v>
+        <v>0.07933135632997121</v>
       </c>
       <c r="J23">
-        <v>0.05234878058664987</v>
+        <v>0.07933135632997119</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>106.222511</v>
       </c>
       <c r="O23">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P23">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q23">
-        <v>8.141105688061998</v>
+        <v>12.22834726882122</v>
       </c>
       <c r="R23">
-        <v>73.269951192558</v>
+        <v>110.055125419391</v>
       </c>
       <c r="S23">
-        <v>0.01220830145933099</v>
+        <v>0.01829462153022574</v>
       </c>
       <c r="T23">
-        <v>0.01220830145933099</v>
+        <v>0.01829462153022574</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.229926</v>
+        <v>0.3453603333333333</v>
       </c>
       <c r="H24">
-        <v>0.689778</v>
+        <v>1.036081</v>
       </c>
       <c r="I24">
-        <v>0.05234878058664986</v>
+        <v>0.07933135632997121</v>
       </c>
       <c r="J24">
-        <v>0.05234878058664987</v>
+        <v>0.07933135632997119</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N24">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O24">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P24">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q24">
-        <v>13.09642746069</v>
+        <v>17.72420232512589</v>
       </c>
       <c r="R24">
-        <v>117.86784714621</v>
+        <v>159.517820926133</v>
       </c>
       <c r="S24">
-        <v>0.01963924073787882</v>
+        <v>0.02651687642941651</v>
       </c>
       <c r="T24">
-        <v>0.01963924073787882</v>
+        <v>0.0265168764294165</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.229926</v>
+        <v>0.3453603333333333</v>
       </c>
       <c r="H25">
-        <v>0.689778</v>
+        <v>1.036081</v>
       </c>
       <c r="I25">
-        <v>0.05234878058664986</v>
+        <v>0.07933135632997121</v>
       </c>
       <c r="J25">
-        <v>0.05234878058664987</v>
+        <v>0.07933135632997119</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N25">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O25">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P25">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q25">
-        <v>0.9158636993060001</v>
+        <v>1.420599324007666</v>
       </c>
       <c r="R25">
-        <v>8.242773293754</v>
+        <v>12.785393916069</v>
       </c>
       <c r="S25">
-        <v>0.001373417882681659</v>
+        <v>0.002125334389634167</v>
       </c>
       <c r="T25">
-        <v>0.001373417882681659</v>
+        <v>0.002125334389634167</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.229926</v>
+        <v>0.3453603333333333</v>
       </c>
       <c r="H26">
-        <v>0.689778</v>
+        <v>1.036081</v>
       </c>
       <c r="I26">
-        <v>0.05234878058664986</v>
+        <v>0.07933135632997121</v>
       </c>
       <c r="J26">
-        <v>0.05234878058664987</v>
+        <v>0.07933135632997119</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N26">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O26">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P26">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q26">
-        <v>11.606652140638</v>
+        <v>19.98803585652255</v>
       </c>
       <c r="R26">
-        <v>104.459869265742</v>
+        <v>179.8923227087029</v>
       </c>
       <c r="S26">
-        <v>0.0174051920827267</v>
+        <v>0.02990375911714777</v>
       </c>
       <c r="T26">
-        <v>0.01740519208272671</v>
+        <v>0.02990375911714777</v>
       </c>
     </row>
   </sheetData>
